--- a/문서/기능 설계/STAY_기능설계서_FHD.xlsx
+++ b/문서/기능 설계/STAY_기능설계서_FHD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\gitprj\Stay\문서\기능 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A48B63-3E3C-4A7B-8A1B-13B357D685A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B2C0B1-1D97-4E58-8FDA-ECED3B6DEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8910" yWindow="3690" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="3090" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능설계서" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DBCS-B01-kbjung - 사용자 보기" guid="{C7AC629B-C55F-4A50-B5D2-2CF3D1FD7034}" mergeInterval="0" personalView="1" xWindow="72" yWindow="83" windowWidth="1440" windowHeight="790" activeSheetId="3"/>
     <customWorkbookView name="장환 - 사용자 보기" guid="{082C25C7-0798-4068-8BA2-63BA3D6BE840}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1680" windowHeight="812" activeSheetId="3"/>
-    <customWorkbookView name="DBCS-B01-kbjung - 사용자 보기" guid="{C7AC629B-C55F-4A50-B5D2-2CF3D1FD7034}" mergeInterval="0" personalView="1" xWindow="72" yWindow="83" windowWidth="1440" windowHeight="790" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="205">
   <si>
     <t>주기능(주메뉴)명</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>사용가의 개인정보를 조회하는 기능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>위시리스트 조회</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -629,10 +625,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>추갛ㄴ 공동 게스트 목록을 조회하는 기능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>FHD_G_010</t>
   </si>
   <si>
@@ -776,6 +768,42 @@
   </si>
   <si>
     <t xml:space="preserve">신고회원 관리 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트,게스트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD_HG_015</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 로그인</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 개인정보를 조회하는 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오를 통한 로그인을 하는 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD_HG_016</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 정보를 입력하면 등록한 이메일로 임시 비밀번호를 전송하는 기능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가한 공동 게스트 목록을 조회하는 기능</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1312,49 @@
     <cellStyle name="콤마_95" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1773,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F448"/>
+  <dimension ref="A1:F450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,7 +1871,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1821,7 +1891,7 @@
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1830,16 +1900,16 @@
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -1857,7 +1927,7 @@
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1866,16 +1936,16 @@
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -1884,16 +1954,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -1902,16 +1972,16 @@
         <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -1920,16 +1990,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -1938,16 +2008,16 @@
         <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -1959,13 +2029,13 @@
         <v>29</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -1974,16 +2044,16 @@
         <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1992,7 +2062,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>79</v>
@@ -2001,115 +2071,115 @@
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>73</v>
@@ -2127,7 +2197,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>75</v>
@@ -2145,7 +2215,7 @@
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>75</v>
@@ -2163,7 +2233,7 @@
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>75</v>
@@ -2172,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>81</v>
@@ -2181,7 +2251,7 @@
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>75</v>
@@ -2193,13 +2263,13 @@
         <v>77</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>75</v>
@@ -2208,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>80</v>
@@ -2217,7 +2287,7 @@
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>75</v>
@@ -2235,7 +2305,7 @@
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -2253,7 +2323,7 @@
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -2271,7 +2341,7 @@
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -2289,7 +2359,7 @@
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -2307,7 +2377,7 @@
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -2325,7 +2395,7 @@
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
@@ -2343,7 +2413,7 @@
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>28</v>
@@ -2361,7 +2431,7 @@
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>28</v>
@@ -2379,7 +2449,7 @@
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -2397,7 +2467,7 @@
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
@@ -2406,7 +2476,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>78</v>
@@ -2415,25 +2485,25 @@
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
@@ -2451,7 +2521,7 @@
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
@@ -2460,43 +2530,43 @@
         <v>57</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>76</v>
@@ -2505,7 +2575,7 @@
     </row>
     <row r="41" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
@@ -2523,7 +2593,7 @@
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>11</v>
@@ -2541,7 +2611,7 @@
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>11</v>
@@ -2559,7 +2629,7 @@
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>11</v>
@@ -2568,34 +2638,34 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>11</v>
@@ -2613,7 +2683,7 @@
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>11</v>
@@ -2631,7 +2701,7 @@
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>11</v>
@@ -2651,7 +2721,7 @@
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>11</v>
@@ -2669,7 +2739,7 @@
     </row>
     <row r="50" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>11</v>
@@ -2687,7 +2757,7 @@
     </row>
     <row r="51" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>11</v>
@@ -2705,13 +2775,13 @@
     </row>
     <row r="52" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>16</v>
@@ -2723,54 +2793,74 @@
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="16" t="s">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="14"/>
       <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5909,6 +5999,22 @@
       <c r="E448" s="14"/>
       <c r="F448" s="16"/>
     </row>
+    <row r="449" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="16"/>
+      <c r="B449" s="16"/>
+      <c r="C449" s="16"/>
+      <c r="D449" s="16"/>
+      <c r="E449" s="14"/>
+      <c r="F449" s="16"/>
+    </row>
+    <row r="450" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="16"/>
+      <c r="B450" s="16"/>
+      <c r="C450" s="16"/>
+      <c r="D450" s="16"/>
+      <c r="E450" s="14"/>
+      <c r="F450" s="16"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F53">
     <sortCondition ref="B3:B53"/>
@@ -5916,7 +6022,7 @@
     <sortCondition ref="D3:D53"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{082C25C7-0798-4068-8BA2-63BA3D6BE840}" scale="85" showPageBreaks="1" printArea="1" view="pageBreakPreview">
+    <customSheetView guid="{C7AC629B-C55F-4A50-B5D2-2CF3D1FD7034}" scale="85" showPageBreaks="1" printArea="1" view="pageBreakPreview">
       <selection activeCell="E36" sqref="E36"/>
       <pageMargins left="0.74803149606299213" right="0.55118110236220474" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
       <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -5925,7 +6031,7 @@
         <oddFooter>&amp;C&amp;P&amp;R&amp;G</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{C7AC629B-C55F-4A50-B5D2-2CF3D1FD7034}" scale="85" showPageBreaks="1" printArea="1" view="pageBreakPreview">
+    <customSheetView guid="{082C25C7-0798-4068-8BA2-63BA3D6BE840}" scale="85" showPageBreaks="1" printArea="1" view="pageBreakPreview">
       <selection activeCell="E36" sqref="E36"/>
       <pageMargins left="0.74803149606299213" right="0.55118110236220474" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
       <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
@@ -5940,113 +6046,143 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="E23:E48 E10:E19 E50:E52">
-    <cfRule type="expression" dxfId="21" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="116" stopIfTrue="1">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E48 E3:E19 E50:E52">
-    <cfRule type="expression" dxfId="20" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="113" stopIfTrue="1">
       <formula>G3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="19" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="100" stopIfTrue="1">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="expression" dxfId="18" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="98" stopIfTrue="1">
       <formula>G11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E48 E3:E19 E50:E52">
-    <cfRule type="expression" dxfId="17" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="118" stopIfTrue="1">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="16" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>G20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="14" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="37" stopIfTrue="1">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
-      <formula>J62</formula>
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+      <formula>J64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
-      <formula>G62</formula>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+      <formula>G64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="11" priority="22" stopIfTrue="1">
-      <formula>H62</formula>
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+      <formula>H64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="25" stopIfTrue="1">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="24" stopIfTrue="1">
       <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="22" stopIfTrue="1">
       <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="21" stopIfTrue="1">
       <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="3" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>J53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>G53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>H53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>J54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>G54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>H54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>J55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>G55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>H55</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.55118110236220474" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6111,7 +6247,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
